--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H2">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.1602208046484</v>
+        <v>20.26081</v>
       </c>
       <c r="N2">
-        <v>12.1602208046484</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O2">
-        <v>0.1502056919967382</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P2">
-        <v>0.1502056919967382</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q2">
-        <v>328.3179659863962</v>
+        <v>658.9862017908567</v>
       </c>
       <c r="R2">
-        <v>328.3179659863962</v>
+        <v>5930.87581611771</v>
       </c>
       <c r="S2">
-        <v>0.008415681010810397</v>
+        <v>0.01369195012296956</v>
       </c>
       <c r="T2">
-        <v>0.008415681010810397</v>
+        <v>0.01369195012296956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H3">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>55.8543492422994</v>
+        <v>55.974318</v>
       </c>
       <c r="N3">
-        <v>55.8543492422994</v>
+        <v>167.922954</v>
       </c>
       <c r="O3">
-        <v>0.6899250691040103</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P3">
-        <v>0.6899250691040103</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q3">
-        <v>1508.03070349805</v>
+        <v>1820.573966028682</v>
       </c>
       <c r="R3">
-        <v>1508.03070349805</v>
+        <v>16385.16569425814</v>
       </c>
       <c r="S3">
-        <v>0.03865492196571856</v>
+        <v>0.03782660072441513</v>
       </c>
       <c r="T3">
-        <v>0.03865492196571856</v>
+        <v>0.03782660072441512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H4">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.174273158150951</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N4">
-        <v>0.174273158150951</v>
+        <v>0.215531</v>
       </c>
       <c r="O4">
-        <v>0.002152659950591865</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P4">
-        <v>0.002152659950591865</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q4">
-        <v>4.705260679828597</v>
+        <v>2.336727160434111</v>
       </c>
       <c r="R4">
-        <v>4.705260679828597</v>
+        <v>21.030544443907</v>
       </c>
       <c r="S4">
-        <v>0.0001206086082897671</v>
+        <v>4.855086744563768E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001206086082897671</v>
+        <v>4.855086744563769E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H5">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.191198110973819</v>
+        <v>0.1860886666666667</v>
       </c>
       <c r="N5">
-        <v>0.191198110973819</v>
+        <v>0.5582659999999999</v>
       </c>
       <c r="O5">
-        <v>0.002361720648716625</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="P5">
-        <v>0.002361720648716625</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="Q5">
-        <v>5.162223277341266</v>
+        <v>6.052564712022444</v>
       </c>
       <c r="R5">
-        <v>5.162223277341266</v>
+        <v>54.47308240820199</v>
       </c>
       <c r="S5">
-        <v>0.0001323218005391895</v>
+        <v>0.0001257559170857388</v>
       </c>
       <c r="T5">
-        <v>0.0001323218005391895</v>
+        <v>0.0001257559170857388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H6">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.5770824985993</v>
+        <v>0.1932936666666667</v>
       </c>
       <c r="N6">
-        <v>12.5770824985993</v>
+        <v>0.579881</v>
       </c>
       <c r="O6">
-        <v>0.1553548582999431</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="P6">
-        <v>0.1553548582999431</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="Q6">
-        <v>339.5729576230024</v>
+        <v>6.286908530650778</v>
       </c>
       <c r="R6">
-        <v>339.5729576230024</v>
+        <v>56.582176775857</v>
       </c>
       <c r="S6">
-        <v>0.008704177009219882</v>
+        <v>0.0001306249475260813</v>
       </c>
       <c r="T6">
-        <v>0.008704177009219882</v>
+        <v>0.0001306249475260813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.0154433058358</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H7">
-        <v>12.0154433058358</v>
+        <v>97.575497</v>
       </c>
       <c r="I7">
-        <v>0.02493385824523583</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J7">
-        <v>0.02493385824523583</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.1602208046484</v>
+        <v>17.58493233333333</v>
       </c>
       <c r="N7">
-        <v>12.1602208046484</v>
+        <v>52.754797</v>
       </c>
       <c r="O7">
-        <v>0.1502056919967382</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="P7">
-        <v>0.1502056919967382</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="Q7">
-        <v>146.1104436646978</v>
+        <v>571.9528373787898</v>
       </c>
       <c r="R7">
-        <v>146.1104436646978</v>
+        <v>5147.575536409108</v>
       </c>
       <c r="S7">
-        <v>0.003745207431874225</v>
+        <v>0.01188363231399903</v>
       </c>
       <c r="T7">
-        <v>0.003745207431874225</v>
+        <v>0.01188363231399903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H8">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.8543492422994</v>
+        <v>20.26081</v>
       </c>
       <c r="N8">
-        <v>55.8543492422994</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O8">
-        <v>0.6899250691040103</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P8">
-        <v>0.6899250691040103</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q8">
-        <v>671.1147667052012</v>
+        <v>246.2854829831701</v>
       </c>
       <c r="R8">
-        <v>671.1147667052012</v>
+        <v>2216.569346848531</v>
       </c>
       <c r="S8">
-        <v>0.01720249387287393</v>
+        <v>0.005117145912695831</v>
       </c>
       <c r="T8">
-        <v>0.01720249387287393</v>
+        <v>0.00511714591269583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H9">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.174273158150951</v>
+        <v>55.974318</v>
       </c>
       <c r="N9">
-        <v>0.174273158150951</v>
+        <v>167.922954</v>
       </c>
       <c r="O9">
-        <v>0.002152659950591865</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P9">
-        <v>0.002152659950591865</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q9">
-        <v>2.093969251491708</v>
+        <v>680.4102078487261</v>
       </c>
       <c r="R9">
-        <v>2.093969251491708</v>
+        <v>6123.691870638535</v>
       </c>
       <c r="S9">
-        <v>5.367411805825393E-05</v>
+        <v>0.01413708299765097</v>
       </c>
       <c r="T9">
-        <v>5.367411805825393E-05</v>
+        <v>0.01413708299765096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H10">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.191198110973819</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N10">
-        <v>0.191198110973819</v>
+        <v>0.215531</v>
       </c>
       <c r="O10">
-        <v>0.002361720648716625</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P10">
-        <v>0.002361720648716625</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q10">
-        <v>2.297330062588824</v>
+        <v>0.8733141539889999</v>
       </c>
       <c r="R10">
-        <v>2.297330062588824</v>
+        <v>7.859827385901</v>
       </c>
       <c r="S10">
-        <v>5.888680786994675E-05</v>
+        <v>1.814510501980992E-05</v>
       </c>
       <c r="T10">
-        <v>5.888680786994675E-05</v>
+        <v>1.814510501980992E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H11">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.5770824985993</v>
+        <v>0.1860886666666667</v>
       </c>
       <c r="N11">
-        <v>12.5770824985993</v>
+        <v>0.5582659999999999</v>
       </c>
       <c r="O11">
-        <v>0.1553548582999431</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="P11">
-        <v>0.1553548582999431</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="Q11">
-        <v>151.1192217147396</v>
+        <v>2.262048612454</v>
       </c>
       <c r="R11">
-        <v>151.1192217147396</v>
+        <v>20.358437512086</v>
       </c>
       <c r="S11">
-        <v>0.003873596014559482</v>
+        <v>4.699924929123514E-05</v>
       </c>
       <c r="T11">
-        <v>0.003873596014559482</v>
+        <v>4.699924929123514E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>135.384559057878</v>
+        <v>12.155757</v>
       </c>
       <c r="H12">
-        <v>135.384559057878</v>
+        <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J12">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.1602208046484</v>
+        <v>0.1932936666666667</v>
       </c>
       <c r="N12">
-        <v>12.1602208046484</v>
+        <v>0.579881</v>
       </c>
       <c r="O12">
-        <v>0.1502056919967382</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="P12">
-        <v>0.1502056919967382</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="Q12">
-        <v>1646.306131683758</v>
+        <v>2.349630841639</v>
       </c>
       <c r="R12">
-        <v>1646.306131683758</v>
+        <v>21.146677574751</v>
       </c>
       <c r="S12">
-        <v>0.04219929667499766</v>
+        <v>4.881897102501448E-05</v>
       </c>
       <c r="T12">
-        <v>0.04219929667499766</v>
+        <v>4.881897102501447E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>135.384559057878</v>
+        <v>12.155757</v>
       </c>
       <c r="H13">
-        <v>135.384559057878</v>
+        <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J13">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.8543492422994</v>
+        <v>17.58493233333333</v>
       </c>
       <c r="N13">
-        <v>55.8543492422994</v>
+        <v>52.754797</v>
       </c>
       <c r="O13">
-        <v>0.6899250691040103</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="P13">
-        <v>0.6899250691040103</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="Q13">
-        <v>7561.816443633426</v>
+        <v>213.758164305443</v>
       </c>
       <c r="R13">
-        <v>7561.816443633426</v>
+        <v>1923.823478748987</v>
       </c>
       <c r="S13">
-        <v>0.1938298894509978</v>
+        <v>0.004441316246218656</v>
       </c>
       <c r="T13">
-        <v>0.1938298894509978</v>
+        <v>0.004441316246218656</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H14">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.174273158150951</v>
+        <v>20.26081</v>
       </c>
       <c r="N14">
-        <v>0.174273158150951</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O14">
-        <v>0.002152659950591865</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P14">
-        <v>0.002152659950591865</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q14">
-        <v>23.59389467189034</v>
+        <v>3060.743012492394</v>
       </c>
       <c r="R14">
-        <v>23.59389467189034</v>
+        <v>27546.68711243154</v>
       </c>
       <c r="S14">
-        <v>0.0006047755893124514</v>
+        <v>0.06359395773748491</v>
       </c>
       <c r="T14">
-        <v>0.0006047755893124514</v>
+        <v>0.0635939577374849</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H15">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.191198110973819</v>
+        <v>55.974318</v>
       </c>
       <c r="N15">
-        <v>0.191198110973819</v>
+        <v>167.922954</v>
       </c>
       <c r="O15">
-        <v>0.002361720648716625</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P15">
-        <v>0.002361720648716625</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q15">
-        <v>25.88527194688971</v>
+        <v>8455.881215880669</v>
       </c>
       <c r="R15">
-        <v>25.88527194688971</v>
+        <v>76102.93094292602</v>
       </c>
       <c r="S15">
-        <v>0.0006635098110717738</v>
+        <v>0.1756903309036776</v>
       </c>
       <c r="T15">
-        <v>0.0006635098110717738</v>
+        <v>0.1756903309036776</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H16">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>12.5770824985993</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N16">
-        <v>12.5770824985993</v>
+        <v>0.215531</v>
       </c>
       <c r="O16">
-        <v>0.1553548582999431</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P16">
-        <v>0.1553548582999431</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q16">
-        <v>1702.742768307421</v>
+        <v>10.85321863942422</v>
       </c>
       <c r="R16">
-        <v>1702.742768307421</v>
+        <v>97.67896775481799</v>
       </c>
       <c r="S16">
-        <v>0.04364592092451389</v>
+        <v>0.0002255005156114663</v>
       </c>
       <c r="T16">
-        <v>0.04364592092451389</v>
+        <v>0.0002255005156114663</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>160.10829669583</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H17">
-        <v>160.10829669583</v>
+        <v>453.201478</v>
       </c>
       <c r="I17">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J17">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.1602208046484</v>
+        <v>0.1860886666666667</v>
       </c>
       <c r="N17">
-        <v>12.1602208046484</v>
+        <v>0.5582659999999999</v>
       </c>
       <c r="O17">
-        <v>0.1502056919967382</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="P17">
-        <v>0.1502056919967382</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="Q17">
-        <v>1946.952240477451</v>
+        <v>28.11188625746089</v>
       </c>
       <c r="R17">
-        <v>1946.952240477451</v>
+        <v>253.006976317148</v>
       </c>
       <c r="S17">
-        <v>0.04990567284344027</v>
+        <v>0.0005840889284991525</v>
       </c>
       <c r="T17">
-        <v>0.04990567284344027</v>
+        <v>0.0005840889284991525</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>160.10829669583</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H18">
-        <v>160.10829669583</v>
+        <v>453.201478</v>
       </c>
       <c r="I18">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J18">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>55.8543492422994</v>
+        <v>0.1932936666666667</v>
       </c>
       <c r="N18">
-        <v>55.8543492422994</v>
+        <v>0.579881</v>
       </c>
       <c r="O18">
-        <v>0.6899250691040103</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="P18">
-        <v>0.6899250691040103</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="Q18">
-        <v>8942.744720238579</v>
+        <v>29.20032514045756</v>
       </c>
       <c r="R18">
-        <v>8942.744720238579</v>
+        <v>262.802926264118</v>
       </c>
       <c r="S18">
-        <v>0.2292268310706918</v>
+        <v>0.000606703743281907</v>
       </c>
       <c r="T18">
-        <v>0.2292268310706918</v>
+        <v>0.0006067037432819069</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>160.10829669583</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H19">
-        <v>160.10829669583</v>
+        <v>453.201478</v>
       </c>
       <c r="I19">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J19">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.174273158150951</v>
+        <v>17.58493233333333</v>
       </c>
       <c r="N19">
-        <v>0.174273158150951</v>
+        <v>52.754797</v>
       </c>
       <c r="O19">
-        <v>0.002152659950591865</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="P19">
-        <v>0.002152659950591865</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="Q19">
-        <v>27.90257851135177</v>
+        <v>2656.505774665552</v>
       </c>
       <c r="R19">
-        <v>27.90257851135177</v>
+        <v>23908.55197198996</v>
       </c>
       <c r="S19">
-        <v>0.0007152188562850654</v>
+        <v>0.05519500176066661</v>
       </c>
       <c r="T19">
-        <v>0.0007152188562850654</v>
+        <v>0.05519500176066661</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H20">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I20">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J20">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.191198110973819</v>
+        <v>20.26081</v>
       </c>
       <c r="N20">
-        <v>0.191198110973819</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O20">
-        <v>0.002361720648716625</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P20">
-        <v>0.002361720648716625</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q20">
-        <v>30.61240387947844</v>
+        <v>3291.548865187381</v>
       </c>
       <c r="R20">
-        <v>30.61240387947844</v>
+        <v>29623.93978668642</v>
       </c>
       <c r="S20">
-        <v>0.0007846790389608465</v>
+        <v>0.0683894788191117</v>
       </c>
       <c r="T20">
-        <v>0.0007846790389608465</v>
+        <v>0.0683894788191117</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H21">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I21">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J21">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.5770824985993</v>
+        <v>55.974318</v>
       </c>
       <c r="N21">
-        <v>12.5770824985993</v>
+        <v>167.922954</v>
       </c>
       <c r="O21">
-        <v>0.1553548582999431</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P21">
-        <v>0.1553548582999431</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q21">
-        <v>2013.695256253668</v>
+        <v>9093.526018581564</v>
       </c>
       <c r="R21">
-        <v>2013.695256253668</v>
+        <v>81841.73416723408</v>
       </c>
       <c r="S21">
-        <v>0.05161647757745656</v>
+        <v>0.1889388645012328</v>
       </c>
       <c r="T21">
-        <v>0.05161647757745656</v>
+        <v>0.1889388645012328</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>138.08143593009</v>
+        <v>162.458898</v>
       </c>
       <c r="H22">
-        <v>138.08143593009</v>
+        <v>487.376694</v>
       </c>
       <c r="I22">
-        <v>0.2865398189767405</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J22">
-        <v>0.2865398189767405</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>12.1602208046484</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N22">
-        <v>12.1602208046484</v>
+        <v>0.215531</v>
       </c>
       <c r="O22">
-        <v>0.1502056919967382</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P22">
-        <v>0.1502056919967382</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q22">
-        <v>1679.100749932806</v>
+        <v>11.671642914946</v>
       </c>
       <c r="R22">
-        <v>1679.100749932806</v>
+        <v>105.044786234514</v>
       </c>
       <c r="S22">
-        <v>0.0430399117940214</v>
+        <v>0.0002425051574832062</v>
       </c>
       <c r="T22">
-        <v>0.0430399117940214</v>
+        <v>0.0002425051574832063</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>138.08143593009</v>
+        <v>162.458898</v>
       </c>
       <c r="H23">
-        <v>138.08143593009</v>
+        <v>487.376694</v>
       </c>
       <c r="I23">
-        <v>0.2865398189767405</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J23">
-        <v>0.2865398189767405</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.8543492422994</v>
+        <v>0.1860886666666667</v>
       </c>
       <c r="N23">
-        <v>55.8543492422994</v>
+        <v>0.5582659999999999</v>
       </c>
       <c r="O23">
-        <v>0.6899250691040103</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="P23">
-        <v>0.6899250691040103</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="Q23">
-        <v>7712.448746317436</v>
+        <v>30.231759716956</v>
       </c>
       <c r="R23">
-        <v>7712.448746317436</v>
+        <v>272.085837452604</v>
       </c>
       <c r="S23">
-        <v>0.1976910044085783</v>
+        <v>0.0006281341628235364</v>
       </c>
       <c r="T23">
-        <v>0.1976910044085783</v>
+        <v>0.0006281341628235365</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>138.08143593009</v>
+        <v>162.458898</v>
       </c>
       <c r="H24">
-        <v>138.08143593009</v>
+        <v>487.376694</v>
       </c>
       <c r="I24">
-        <v>0.2865398189767405</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J24">
-        <v>0.2865398189767405</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.174273158150951</v>
+        <v>0.1932936666666667</v>
       </c>
       <c r="N24">
-        <v>0.174273158150951</v>
+        <v>0.579881</v>
       </c>
       <c r="O24">
-        <v>0.002152659950591865</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="P24">
-        <v>0.002152659950591865</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="Q24">
-        <v>24.06388792155499</v>
+        <v>31.402276077046</v>
       </c>
       <c r="R24">
-        <v>24.06388792155499</v>
+        <v>282.620484693414</v>
       </c>
       <c r="S24">
-        <v>0.0006168227925610719</v>
+        <v>0.0006524543254869098</v>
       </c>
       <c r="T24">
-        <v>0.0006168227925610719</v>
+        <v>0.0006524543254869098</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>138.08143593009</v>
+        <v>162.458898</v>
       </c>
       <c r="H25">
-        <v>138.08143593009</v>
+        <v>487.376694</v>
       </c>
       <c r="I25">
-        <v>0.2865398189767405</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J25">
-        <v>0.2865398189767405</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.191198110973819</v>
+        <v>17.58493233333333</v>
       </c>
       <c r="N25">
-        <v>0.191198110973819</v>
+        <v>52.754797</v>
       </c>
       <c r="O25">
-        <v>0.002361720648716625</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="P25">
-        <v>0.002361720648716625</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="Q25">
-        <v>26.40090971038563</v>
+        <v>2856.828728277902</v>
       </c>
       <c r="R25">
-        <v>26.40090971038563</v>
+        <v>25711.45855450112</v>
       </c>
       <c r="S25">
-        <v>0.000676727007156892</v>
+        <v>0.05935717068300883</v>
       </c>
       <c r="T25">
-        <v>0.000676727007156892</v>
+        <v>0.05935717068300884</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H26">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.5770824985993</v>
+        <v>20.26081</v>
       </c>
       <c r="N26">
-        <v>12.5770824985993</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O26">
-        <v>0.1553548582999431</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P26">
-        <v>0.1553548582999431</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q26">
-        <v>1736.661611217796</v>
+        <v>2889.025151242694</v>
       </c>
       <c r="R26">
-        <v>1736.661611217796</v>
+        <v>26001.22636118424</v>
       </c>
       <c r="S26">
-        <v>0.04451535297442287</v>
+        <v>0.06002612523194167</v>
       </c>
       <c r="T26">
-        <v>0.04451535297442287</v>
+        <v>0.06002612523194167</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.30358382520104</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H27">
-        <v>9.30358382520104</v>
+        <v>427.775368</v>
       </c>
       <c r="I27">
-        <v>0.01930634054571784</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J27">
-        <v>0.01930634054571784</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>12.1602208046484</v>
+        <v>55.974318</v>
       </c>
       <c r="N27">
-        <v>12.1602208046484</v>
+        <v>167.922954</v>
       </c>
       <c r="O27">
-        <v>0.1502056919967382</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P27">
-        <v>0.1502056919967382</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q27">
-        <v>113.133633589</v>
+        <v>7981.478160333008</v>
       </c>
       <c r="R27">
-        <v>113.133633589</v>
+        <v>71833.30344299707</v>
       </c>
       <c r="S27">
-        <v>0.002899922241594232</v>
+        <v>0.1658335190962517</v>
       </c>
       <c r="T27">
-        <v>0.002899922241594232</v>
+        <v>0.1658335190962516</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.30358382520104</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H28">
-        <v>9.30358382520104</v>
+        <v>427.775368</v>
       </c>
       <c r="I28">
-        <v>0.01930634054571784</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J28">
-        <v>0.01930634054571784</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>55.8543492422994</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N28">
-        <v>55.8543492422994</v>
+        <v>0.215531</v>
       </c>
       <c r="O28">
-        <v>0.6899250691040103</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P28">
-        <v>0.6899250691040103</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q28">
-        <v>519.6456201777867</v>
+        <v>10.24431698226755</v>
       </c>
       <c r="R28">
-        <v>519.6456201777867</v>
+        <v>92.19885284040799</v>
       </c>
       <c r="S28">
-        <v>0.01331992833514994</v>
+        <v>0.0002128491868022653</v>
       </c>
       <c r="T28">
-        <v>0.01331992833514994</v>
+        <v>0.0002128491868022653</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.30358382520104</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H29">
-        <v>9.30358382520104</v>
+        <v>427.775368</v>
       </c>
       <c r="I29">
-        <v>0.01930634054571784</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J29">
-        <v>0.01930634054571784</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.174273158150951</v>
+        <v>0.1860886666666667</v>
       </c>
       <c r="N29">
-        <v>0.174273158150951</v>
+        <v>0.5582659999999999</v>
       </c>
       <c r="O29">
-        <v>0.002152659950591865</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="P29">
-        <v>0.002152659950591865</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="Q29">
-        <v>1.621364935339891</v>
+        <v>26.53471595465422</v>
       </c>
       <c r="R29">
-        <v>1.621364935339891</v>
+        <v>238.812443591888</v>
       </c>
       <c r="S29">
-        <v>4.155998608525468E-05</v>
+        <v>0.0005513195972707103</v>
       </c>
       <c r="T29">
-        <v>4.155998608525468E-05</v>
+        <v>0.0005513195972707103</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.30358382520104</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H30">
-        <v>9.30358382520104</v>
+        <v>427.775368</v>
       </c>
       <c r="I30">
-        <v>0.01930634054571784</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J30">
-        <v>0.01930634054571784</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.191198110973819</v>
+        <v>0.1932936666666667</v>
       </c>
       <c r="N30">
-        <v>0.191198110973819</v>
+        <v>0.579881</v>
       </c>
       <c r="O30">
-        <v>0.002361720648716625</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="P30">
-        <v>0.002361720648716625</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="Q30">
-        <v>1.778827652665016</v>
+        <v>27.56208979680089</v>
       </c>
       <c r="R30">
-        <v>1.778827652665016</v>
+        <v>248.058808171208</v>
       </c>
       <c r="S30">
-        <v>4.559618311797682E-05</v>
+        <v>0.0005726656457404479</v>
       </c>
       <c r="T30">
-        <v>4.559618311797682E-05</v>
+        <v>0.0005726656457404476</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.30358382520104</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H31">
-        <v>9.30358382520104</v>
+        <v>427.775368</v>
       </c>
       <c r="I31">
-        <v>0.01930634054571784</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J31">
-        <v>0.01930634054571784</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.5770824985993</v>
+        <v>17.58493233333333</v>
       </c>
       <c r="N31">
-        <v>12.5770824985993</v>
+        <v>52.754797</v>
       </c>
       <c r="O31">
-        <v>0.1553548582999431</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="P31">
-        <v>0.1553548582999431</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="Q31">
-        <v>117.0119413021875</v>
+        <v>2507.466966715588</v>
       </c>
       <c r="R31">
-        <v>117.0119413021875</v>
+        <v>22567.2027004403</v>
       </c>
       <c r="S31">
-        <v>0.002999333799770442</v>
+        <v>0.05209837861545943</v>
       </c>
       <c r="T31">
-        <v>0.002999333799770442</v>
+        <v>0.05209837861545943</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H32">
+        <v>29.23006</v>
+      </c>
+      <c r="I32">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J32">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>20.26081</v>
+      </c>
+      <c r="N32">
+        <v>60.78243000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.2149202666903252</v>
+      </c>
+      <c r="P32">
+        <v>0.2149202666903251</v>
+      </c>
+      <c r="Q32">
+        <v>197.4082306495334</v>
+      </c>
+      <c r="R32">
+        <v>1776.6740758458</v>
+      </c>
+      <c r="S32">
+        <v>0.004101608866121456</v>
+      </c>
+      <c r="T32">
+        <v>0.004101608866121457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H33">
+        <v>29.23006</v>
+      </c>
+      <c r="I33">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J33">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>55.974318</v>
+      </c>
+      <c r="N33">
+        <v>167.922954</v>
+      </c>
+      <c r="O33">
+        <v>0.5937578681389869</v>
+      </c>
+      <c r="P33">
+        <v>0.5937578681389868</v>
+      </c>
+      <c r="Q33">
+        <v>545.37755786636</v>
+      </c>
+      <c r="R33">
+        <v>4908.398020797241</v>
+      </c>
+      <c r="S33">
+        <v>0.01133146991575864</v>
+      </c>
+      <c r="T33">
+        <v>0.01133146991575864</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H34">
+        <v>29.23006</v>
+      </c>
+      <c r="I34">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J34">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.07184366666666665</v>
+      </c>
+      <c r="N34">
+        <v>0.215531</v>
+      </c>
+      <c r="O34">
+        <v>0.0007620949014383343</v>
+      </c>
+      <c r="P34">
+        <v>0.0007620949014383344</v>
+      </c>
+      <c r="Q34">
+        <v>0.6999982290955554</v>
+      </c>
+      <c r="R34">
+        <v>6.299984061859999</v>
+      </c>
+      <c r="S34">
+        <v>1.454406907594881E-05</v>
+      </c>
+      <c r="T34">
+        <v>1.454406907594882E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H35">
+        <v>29.23006</v>
+      </c>
+      <c r="I35">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J35">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.1860886666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.5582659999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="P35">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="Q35">
+        <v>1.813127630662222</v>
+      </c>
+      <c r="R35">
+        <v>16.31814867596</v>
+      </c>
+      <c r="S35">
+        <v>3.767188602453309E-05</v>
+      </c>
+      <c r="T35">
+        <v>3.767188602453309E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H36">
+        <v>29.23006</v>
+      </c>
+      <c r="I36">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J36">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.1932936666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.579881</v>
+      </c>
+      <c r="O36">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="P36">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="Q36">
+        <v>1.883328491428889</v>
+      </c>
+      <c r="R36">
+        <v>16.94995642286</v>
+      </c>
+      <c r="S36">
+        <v>3.913046995481056E-05</v>
+      </c>
+      <c r="T36">
+        <v>3.913046995481056E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H37">
+        <v>29.23006</v>
+      </c>
+      <c r="I37">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J37">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>17.58493233333333</v>
+      </c>
+      <c r="N37">
+        <v>52.754797</v>
+      </c>
+      <c r="O37">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="P37">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="Q37">
+        <v>171.3362090664244</v>
+      </c>
+      <c r="R37">
+        <v>1542.02588159782</v>
+      </c>
+      <c r="S37">
+        <v>0.003559902805887122</v>
+      </c>
+      <c r="T37">
+        <v>0.003559902805887122</v>
       </c>
     </row>
   </sheetData>
